--- a/documentation/Example files/all_widgets.xlsx
+++ b/documentation/Example files/all_widgets.xlsx
@@ -10,6 +10,9 @@
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$G$43:$G$46</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="183">
-  <si>
-    <t>instruction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="184">
   <si>
     <t>mc</t>
   </si>
@@ -49,9 +49,6 @@
     <t>freakig</t>
   </si>
   <si>
-    <t>mmc_many</t>
-  </si>
-  <si>
     <t>rating</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>studiengang</t>
   </si>
   <si>
-    <t>mselect</t>
-  </si>
-  <si>
     <t>partner</t>
   </si>
   <si>
@@ -109,12 +103,6 @@
     <t>geschlecht</t>
   </si>
   <si>
-    <t>btnradio</t>
-  </si>
-  <si>
-    <t>btncheckbox</t>
-  </si>
-  <si>
     <t>btnmc</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>confirm2</t>
   </si>
   <si>
-    <t>btncheck</t>
-  </si>
-  <si>
     <t>optional</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>(Zeilen ohne Variablenname werden ignoriert und können zur Strukturierung benutzt werden.)</t>
   </si>
   <si>
-    <t>range_list 1,5,1</t>
-  </si>
-  <si>
     <t>slider_list</t>
   </si>
   <si>
@@ -181,9 +163,6 @@
     <t>mc-all-left</t>
   </si>
   <si>
-    <t>btnrating</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -238,9 +217,6 @@
     <t># COLOR</t>
   </si>
   <si>
-    <t>geolocation</t>
-  </si>
-  <si>
     <t>geoloc</t>
   </si>
   <si>
@@ -259,18 +235,12 @@
     <t>### IP</t>
   </si>
   <si>
-    <t>select_add</t>
-  </si>
-  <si>
     <t>fav_tv_series</t>
   </si>
   <si>
     <t>The Wire</t>
   </si>
   <si>
-    <t>mselect_add</t>
-  </si>
-  <si>
     <t>m_fav_tv_series</t>
   </si>
   <si>
@@ -283,12 +253,6 @@
     <t>telephone</t>
   </si>
   <si>
-    <t># TEL</t>
-  </si>
-  <si>
-    <t># URL</t>
-  </si>
-  <si>
     <t># CC</t>
   </si>
   <si>
@@ -334,22 +298,10 @@
     <t>mc coolness</t>
   </si>
   <si>
-    <t>mmc coolness</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
     <t>coolness</t>
-  </si>
-  <si>
-    <t>btnrating 1,5,1</t>
-  </si>
-  <si>
-    <t>skipif</t>
-  </si>
-  <si>
-    <t>select studiengaenge</t>
   </si>
   <si>
     <t>jura</t>
@@ -395,10 +347,6 @@
     <t>yourstory</t>
   </si>
   <si>
-    <t>## INSTRUCTION
-All available widgets follow. They should work in all current and fairly many older browsers.</t>
-  </si>
-  <si>
     <t>beginning</t>
   </si>
   <si>
@@ -420,16 +368,8 @@
 A multiple-choice/radio button question with more choices. We can give more spaces to the choices by specifying a [CSS](http://reference.sitepoint.com/css) class in the `class` column.</t>
   </si>
   <si>
-    <t>### BTNRATING 5
-This item shows the first choice, then the numbers specified in the `type` column (here: 1 to 5), then the second choice.</t>
-  </si>
-  <si>
     <t>### MC
 If you leave all but the first and the last choices text fields empty, the first choice is automatically placed to the left rather than to the right of its radio button.</t>
-  </si>
-  <si>
-    <t>### MMC
-MMC or multiple-multiple-choice/checkboxes. Now you can select several choices. The choices appear comma-separated in the results. By specifying `!` in the `optional` column we force users to choose at least one option.</t>
   </si>
   <si>
     <t>### Email addresses are automatically checked in newer browsers
@@ -444,12 +384,6 @@
 Should you want to specify just a minimum or just a maximum, or just a step, leave the commas in place, e.g. `number ,120,1` </t>
   </si>
   <si>
-    <t>### RANGE_LIST 1,5,1
-You can make sliders with this item type.By defining two choices, you can also label the slider's poles.  
-Range uses the same options as `number`. 
-`range_list` shows 'ticks', i.e. marks for every useable value on the scale. Thus, it doesn't make sense to use range_list for very large ranges.</t>
-  </si>
-  <si>
     <t>and another one.</t>
   </si>
   <si>
@@ -472,20 +406,12 @@
   </si>
   <si>
     <t>a short text</t>
-  </si>
-  <si>
-    <t>### RANGE 1,100,1
-Same as `range_list` without ticks.</t>
   </si>
   <si>
     <t>### SELECT
 `select` is a different way to display `mc`.</t>
   </si>
   <si>
-    <t>### MSELECT
-`mselect` is a different way to display `mmc`.</t>
-  </si>
-  <si>
     <t>### SEX
 A simple `mc` field with symbols for male and female.</t>
   </si>
@@ -496,10 +422,6 @@
     <t>go</t>
   </si>
   <si>
-    <t>### BTNCHECKBOX
-An `mmc` field with larger buttons.</t>
-  </si>
-  <si>
     <t>### TIME
 What time is it?</t>
   </si>
@@ -510,10 +432,6 @@
   <si>
     <t>### MONTH
 And your favourite month?</t>
-  </si>
-  <si>
-    <t>### GEOLOCATION
-So this item saves the GPS coordinates, which can from actual GPS or e.g. Google's WiFi database etc.</t>
   </si>
   <si>
     <t>### REFERRER
@@ -525,14 +443,6 @@
 E.g. the user's browser</t>
   </si>
   <si>
-    <t>### SELECT_ADD
-What's your favourite TV series? If you need more choices (why would you), just add our own.</t>
-  </si>
-  <si>
-    <t>### MSELECT_ADD
-What are your favourite TV series? If you need more choices (why would you), just add our own.</t>
-  </si>
-  <si>
     <t>### TIMEZONE
 Choose your timezone</t>
   </si>
@@ -593,8 +503,15 @@
     <t>triassic</t>
   </si>
   <si>
-    <t>## INSTRUCTION
-These instructions will only appear once, because instructions that are followed by further instructions or submission buttons are hidden after being displayed once.
+    <t>note</t>
+  </si>
+  <si>
+    <t>## note
+All available widgets follow. They should work in all current and fairly many older browsers.</t>
+  </si>
+  <si>
+    <t>## note
+This note will only appear once, because notes that are followed by further notes or submission buttons are hidden after being displayed once.
 #### by the way
 In Excel you can make linebreaks using Strg+Enter (Windows) or Alt+Apple+Enter (Mac).
 In the `label` column you can use HTML und [Markdown](http://daringfireball.net/projects/markdown/syntax) and `knitr`. A line break in markdown is a little different: The line before the break has to end with two spaces.  
@@ -602,25 +519,116 @@
 Make text _bold__ through  `__bold__`, make it *italic* through `*italic*`.</t>
   </si>
   <si>
-    <t>### BTNCHECK
+    <t>mc_multiple coolness</t>
+  </si>
+  <si>
+    <t>mc_multiple_many</t>
+  </si>
+  <si>
+    <t>### mc_multiple
+mc_multiple or multiple-multiple-choice/checkboxes. Now you can select several choices. The choices appear comma-separated in the results. By specifying `!` in the `optional` column we force users to choose at least one option.</t>
+  </si>
+  <si>
+    <t>### MSELECT
+`mselect` is a different way to display `mc_multiple`.</t>
+  </si>
+  <si>
+    <t>rating_button 1,5,1</t>
+  </si>
+  <si>
+    <t>rating_button</t>
+  </si>
+  <si>
+    <t>### rating_button 5
+This item shows the first choice, then the numbers specified in the `type` column (here: 1 to 5), then the second choice.</t>
+  </si>
+  <si>
+    <t>select_or_add_one</t>
+  </si>
+  <si>
+    <t>select_or_add_multiple</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>select_one studiengaenge</t>
+  </si>
+  <si>
+    <t>range_ticks 1,5,1</t>
+  </si>
+  <si>
+    <t>### range_ticks 1,5,1
+You can make sliders with this item type.By defining two choices, you can also label the slider's poles.  
+Range uses the same options as `number`. 
+`range_ticks` shows 'ticks', i.e. marks for every useable value on the scale. Thus, it doesn't make sense to use range_ticks for very large ranges.</t>
+  </si>
+  <si>
+    <t>### RANGE 1,100,1
+Same as `range_ticks` without ticks.</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>### geopoint
+So this item saves the GPS coordinates, which can from actual GPS or e.g. Google's WiFi database etc.</t>
+  </si>
+  <si>
+    <t>showif</t>
+  </si>
+  <si>
+    <t>confirm1 == 1</t>
+  </si>
+  <si>
+    <t>check_button</t>
+  </si>
+  <si>
+    <t>mc_multiple_button</t>
+  </si>
+  <si>
+    <t>### mc_multiple_button
+An `mc_multiple` field with larger buttons.</t>
+  </si>
+  <si>
+    <t># TEL
+For telephone numbers. Most devices don't do anything special with this yet, but it might show a numeric dial pad on a phone or even bring up the phonebook.</t>
+  </si>
+  <si>
+    <t># URL
+For internet addresses</t>
+  </si>
+  <si>
+    <t>mc_button</t>
+  </si>
+  <si>
+    <t>### mc_button
+An `mc` field with larger buttons.</t>
+  </si>
+  <si>
+    <t>### `select_or_add_multiple`
+What are your favourite TV series? If you need more choices (why would you), just add our own.</t>
+  </si>
+  <si>
+    <t>### `select_or_add_one`
+What's your favourite TV series? If you need more choices (why would you), just add our own.</t>
+  </si>
+  <si>
+    <t>### check_button
 Like `check` with a larger button.
 This one has a skipIf: `confirm1 = 1`, so it will only be displayed if you checked that you wanted to be bothered with another question.  
-We can also use expressions like the one above to dynamically alter question text. For example, we can tell you that your preferred movies were `r widgets$m_fav_tv_series`.
+We can also use expressions like the one above to dynamically alter question text. For example, we can tell you that your preferred movies were `r all_widgets$m_fav_tv_series`.
 Skipifs can also refer to surveys that were answered before this one in the run.</t>
   </si>
   <si>
-    <t>### BTNRADIO
-An `mc` field with larger buttons.</t>
-  </si>
-  <si>
-    <t>confirm1 = 0</t>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,6 +671,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,23 +705,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -708,12 +726,28 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1046,810 +1080,824 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="10.83203125" style="2"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="14.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" style="8" customWidth="1"/>
+    <col min="8" max="12" width="10.83203125" style="8"/>
+    <col min="13" max="13" width="10.83203125" style="9"/>
+    <col min="14" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="18">
       <c r="A1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="255">
+      <c r="C2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45">
+      <c r="C3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30">
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30">
+      <c r="B6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="90">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="105">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60">
+      <c r="C10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75">
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="180">
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="135">
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30">
+      <c r="B16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
+      <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="G17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30">
+      <c r="C18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="G18" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45">
+      <c r="C19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="G19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="45">
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30">
+      <c r="C22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
+      <c r="C23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="G23" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45">
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="33">
+      <c r="A27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="G28" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="C29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="30">
+      <c r="C31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="C33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="C34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="45">
+      <c r="A37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="75">
+      <c r="C38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30">
+      <c r="C39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="G39" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="C40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="C41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="G41" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="45">
+      <c r="C43" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="G43" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30">
+      <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="G44" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="C45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="G45" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45">
+      <c r="C46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="G46" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="45">
+      <c r="C48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="G48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="45">
+      <c r="C49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="G49" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" ht="30">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" ht="45">
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="C54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="45">
+      <c r="B55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="45">
+      <c r="B56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="270">
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="30">
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30">
-      <c r="B6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="90">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="90">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="90">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60">
-      <c r="C10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="C59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="G59" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="75">
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="180">
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="135">
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="G16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30">
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="G17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30">
-      <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="G18" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30">
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="G19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="45">
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="G21" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2" t="s">
+    <row r="60" spans="2:12" ht="195">
+      <c r="C60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="G22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30">
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="G23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="45">
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="G24" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="33">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="30">
-      <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="G28" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45">
-      <c r="C29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="G29" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="30">
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="G31" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="G32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="C33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="G33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="C34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="G34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="C35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="G35" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="45">
-      <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="C38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="G38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="C39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="G39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="C40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="G40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="C41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="G41" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" ht="45">
-      <c r="C43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="G43" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30">
-      <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="G44" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="C45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="G45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45">
-      <c r="C46" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="G46" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" ht="45">
-      <c r="C48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="G48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="45">
-      <c r="C49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="G49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="2:12" ht="30">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="2:12" ht="45">
-      <c r="B54" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="45">
-      <c r="B55" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="45">
-      <c r="B56" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="C59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="G59" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" ht="195">
-      <c r="C60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="7" t="s">
+      <c r="G60" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="G43:G46"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1875,85 +1923,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="7"/>
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>177</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
